--- a/registro/consultas_correctas.xlsx
+++ b/registro/consultas_correctas.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Consultas correctas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -46,11 +45,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,13 +415,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1003,48 +1005,782 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Cuantos empleados faltan evaluar?</t>
+          <t>Quienes son los trainee que falta evaluar?</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
+        <is>
+          <t>SELECT person.last_name, person.name
+FROM person 
+JOIN person_profile ON person.id = person_profile.person_id
+JOIN profile ON person_profile.profile_id = profile.id
+JOIN seniority ON profile.seniority_id = seniority.id
+LEFT JOIN evaluation ON person.id = evaluation.evaluator_id
+WHERE seniority.name = 'Trainee' AND evaluation.id IS NULL;</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>"[\n    [\n        \"Gomez\",\n        \"Maria\"\n    ],\n    [\n        \"Rodriguez\",\n        \"Carlos\"\n    ],\n    [\n        \"Lopez\",\n        \"Ana\"\n    ],\n    [\n        \"Martinez\",\n        \"Pedro\"\n    ]\n]"</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2024-05-27 10:03:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Cual es el promedio de empleados evaluados?</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SELECT COUNT(evaluator_id) AS "Number of Employees Evaluated" 
+FROM evaluation;</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>"[\n    [\n        \"1\"\n    ]\n]"</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2024-05-27 14:38:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Dame el porcentaje de empleados que faltan evaluar</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SELECT 
+( (SELECT COUNT(*) FROM person) - 
+   (SELECT COUNT(*) FROM evaluation) ) / 
+   (SELECT COUNT(*) FROM person) * 100 AS percentage_not_evaluated</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>"[\n    [\n        \"90.0000\"\n    ]\n]"</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2024-05-27 14:40:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Que puesto tiene cada empleado en la empresa?</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SELECT person.last_name, person.name, profile.name AS position
+FROM person
+INNER JOIN person_profile ON person.id = person_profile.person_id
+INNER JOIN profile ON person_profile.profile_id = profile.id</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>"[\n    [\n        \"Perez\",\n        \"Juan\",\n        \"Web Developer - Junior\"\n    ],\n    [\n        \"Gomez\",\n        \"Maria\",\n        \"Database Administrator - Entry\"\n    ],\n    [\n        \"Rodriguez\",\n        \"Carlos\",\n        \"Cybersecurity Analyst - Mid\"\n    ],\n    [\n        \"Lopez\",\n        \"Ana\",\n        \"Mobile Developer - Senior\"\n    ],\n    [\n        \"Martinez\",\n        \"Pedro\",\n        \"Data Analyst - Mid\"\n    ],\n    [\n        \"Diaz\",\n        \"Laura\",\n        \"Infrastructure Manager - Senior\"\n    ],\n    [\n        \"Sanchez\",\n        \"Martin\",\n        \"Network Engineer - Mid\"\n    ],\n    [\n        \"Garcia\",\n        \"Lucia\",\n        \"Software Engineer - Lead\"\n    ],\n    [\n        \"Perez\",\n        \"Diego\",\n        \"UI/UX Designer - Mid\"\n    ],\n    [\n        \"Lopez\",\n        \"Camila\",\n        \"Systems Integrator - Senior\"\n    ]\n]"</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2024-05-27 14:52:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Quien es el evaluador?</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SELECT evaluator_id FROM evaluation;</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>"[\n    [\n        \"1\"\n    ]\n]"</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2024-05-27 15:10:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Quien es el evaluador en la base de datos?</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SELECT evaluator_id FROM evaluation;</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>"[\n    [\n        \"1\"\n    ]\n]"</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2024-05-27 15:11:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Dame el nombre y apellido del evaluador</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SELECT person.name, person.last_name
+FROM person
+INNER JOIN evaluation ON person.id = evaluation.evaluator_id;</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>"[\n    [\n        \"Juan\",\n        \"Perez\"\n    ]\n]"</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2024-05-27 15:11:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Dame el porcentaje de empleados sin evaluar</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SELECT (COUNT(*) - COUNT(evaluation.id)) * 100 / COUNT(*) as non_evaluated_percentage
+FROM person
+LEFT JOIN evaluation
+ON person.id = evaluation.evaluator_id</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>"[\n    [\n        \"90.0000\"\n    ]\n]"</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2024-05-27 15:32:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Dame el porcentaje de trainees sin evaluar</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SELECT COUNT(*) AS TotalTraineesWithoutEvaluation
+FROM person_profile 
+INNER JOIN person ON person_profile.person_id = person.id 
+INNER JOIN profile ON person_profile.profile_id = profile.id 
+LEFT JOIN evaluation ON evaluation.evaluator_id = person.id
+INNER JOIN seniority ON profile.seniority_id = seniority.id 
+WHERE seniority.name = 'Trainee' AND evaluation.id IS NULL;</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>"[\n    [\n        \"4\"\n    ]\n]"</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2024-05-27 17:27:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Cuantos trainee tenemos en la empresa?</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>SELECT COUNT(*) 
 FROM person 
-WHERE id NOT IN (SELECT evaluator_id FROM evaluation)</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
+INNER JOIN profile ON person.user_id = profile.id 
+INNER JOIN seniority ON profile.seniority_id = seniority.id 
+WHERE seniority.name = 'Trainee';</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>"[\n    [\n        \"5\"\n    ]\n]"</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2024-05-27 17:28:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Quienes son trainee en la empresa?</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SELECT person.name, person.last_name
+FROM person
+INNER JOIN person_profile ON person.id = person_profile.person_id
+INNER JOIN profile ON person_profile.profile_id = profile.id
+INNER JOIN seniority ON profile.seniority_id = seniority.id
+WHERE seniority.name = 'Trainee';</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>"[\n    [\n        \"Juan\",\n        \"Perez\"\n    ],\n    [\n        \"Maria\",\n        \"Gomez\"\n    ],\n    [\n        \"Carlos\",\n        \"Rodriguez\"\n    ],\n    [\n        \"Ana\",\n        \"Lopez\"\n    ],\n    [\n        \"Pedro\",\n        \"Martinez\"\n    ]\n]"</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2024-05-27 17:29:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Cuantos empleados faltan evaluar?</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SELECT COUNT(person.id) AS 'Number of Employees Need Evaluation' 
+FROM person 
+LEFT JOIN evaluation 
+ON person.id = evaluation.evaluator_id 
+WHERE evaluation.id IS NULL;</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>"[\n    [\n        \"9\"\n    ]\n]"</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2024-05-24 13:03:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Que empleados fueron evaluados?</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2024-05-27 17:54:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Que empleado es el evaluador?</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>SELECT person.last_name, person.name
 FROM person
 INNER JOIN evaluation ON person.id = evaluation.evaluator_id;</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>"[\n    [\n        \"Perez\",\n        \"Juan\"\n    ]\n]"</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2024-05-24 13:29:37</t>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2024-05-27 17:55:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Que porcentaje de trainee tenemos respecto al total de empleados la empresa?</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SELECT 
+  (COUNT(*) * 100.0 / 
+    (SELECT COUNT(*) FROM person)) AS percentage
+FROM profile
+INNER JOIN person_profile ON profile.id = person_profile.profile_id
+WHERE profile.name = 'Trainee';</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>"[\n    [\n        \"0.00000\"\n    ]\n]"</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2024-05-27 17:56:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Dame una lista de empleados con seniority</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SELECT person.name, person.last_name, seniority.name AS seniority_level
+FROM person
+JOIN person_profile ON person.id = person_profile.person_id
+JOIN profile ON person_profile.profile_id = profile.id
+JOIN seniority ON profile.seniority_id = seniority.id;</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>"[\n    [\n        \"Juan\",\n        \"Perez\",\n        \"Trainee\"\n    ],\n    [\n        \"Maria\",\n        \"Gomez\",\n        \"Trainee\"\n    ],\n    [\n        \"Carlos\",\n        \"Rodriguez\",\n        \"Trainee\"\n    ],\n    [\n        \"Ana\",\n        \"Lopez\",\n        \"Trainee\"\n    ],\n    [\n        \"Pedro\",\n        \"Martinez\",\n        \"Trainee\"\n    ],\n    [\n        \"Laura\",\n        \"Diaz\",\n        \"Senior\"\n    ],\n    [\n        \"Martin\",\n        \"Sanchez\",\n        \"Semisenior\"\n    ],\n    [\n        \"Lucia\",\n        \"Garcia\",\n        \"Senior\"\n    ],\n    [\n        \"Diego\",\n        \"Perez\",\n        \"Semisenior\"\n    ],\n    [\n        \"Camila\",\n        \"Lopez\",\n        \"Senior\"\n    ]\n]"</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2024-05-27 17:56:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Dame una lista de todos los empleados con seniority</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SELECT person.last_name, person.name, seniority.name
+FROM person
+INNER JOIN person_profile ON person_profile.person_id = person.id
+INNER JOIN profile ON person_profile.profile_id = profile.id
+INNER JOIN seniority ON seniority.id = profile.seniority_id;</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>"[\n    [\n        \"Perez\",\n        \"Juan\",\n        \"Trainee\"\n    ],\n    [\n        \"Gomez\",\n        \"Maria\",\n        \"Trainee\"\n    ],\n    [\n        \"Rodriguez\",\n        \"Carlos\",\n        \"Trainee\"\n    ],\n    [\n        \"Lopez\",\n        \"Ana\",\n        \"Trainee\"\n    ],\n    [\n        \"Martinez\",\n        \"Pedro\",\n        \"Trainee\"\n    ],\n    [\n        \"Diaz\",\n        \"Laura\",\n        \"Senior\"\n    ],\n    [\n        \"Sanchez\",\n        \"Martin\",\n        \"Semisenior\"\n    ],\n    [\n        \"Garcia\",\n        \"Lucia\",\n        \"Senior\"\n    ],\n    [\n        \"Perez\",\n        \"Diego\",\n        \"Semisenior\"\n    ],\n    [\n        \"Lopez\",\n        \"Camila\",\n        \"Senior\"\n    ]\n]"</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2024-05-27 17:57:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>dame una lista de todos los empleados</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SELECT last_name, name FROM person;</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>"[\n    [\n        \"Perez\",\n        \"Juan\"\n    ],\n    [\n        \"Gomez\",\n        \"Maria\"\n    ],\n    [\n        \"Rodriguez\",\n        \"Carlos\"\n    ],\n    [\n        \"Lopez\",\n        \"Ana\"\n    ],\n    [\n        \"Martinez\",\n        \"Pedro\"\n    ],\n    [\n        \"Diaz\",\n        \"Laura\"\n    ],\n    [\n        \"Sanchez\",\n        \"Martin\"\n    ],\n    [\n        \"Garcia\",\n        \"Lucia\"\n    ],\n    [\n        \"Perez\",\n        \"Diego\"\n    ],\n    [\n        \"Lopez\",\n        \"Camila\"\n    ]\n]"</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2024-05-27 17:57:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Dame una lista de los Trainee con su funcion</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>SELECT person.last_name, person.name, profile.description
+FROM person
+JOIN person_profile ON person_profile.person_id = person.id
+JOIN profile ON person_profile.profile_id = profile.id
+WHERE profile.name = 'Trainee';</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>"[]"</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2024-05-27 17:58:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Dame una lista de los trainee con su funcion</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SELECT person.last_name, person.name, profile.description as 'job_function'
+FROM person
+INNER JOIN person_profile ON person.id = person_profile.person_id
+INNER JOIN profile ON person_profile.profile_id = profile.id
+WHERE profile.name = 'Trainee';</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>"[]"</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2024-05-27 18:03:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Cuantos trainees tenemos?</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SELECT COUNT(*) FROM person_profile WHERE profile_id = (SELECT id FROM profile WHERE name = 'Trainee');</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>"[\n    [\n        \"0\"\n    ]\n]"</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2024-05-27 18:09:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Dame una lista de empleados con nombre, apellido y seniority</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SELECT person.last_name, person.name, seniority.name as seniority
+FROM person
+JOIN profile ON person.id = profile.id
+JOIN seniority ON profile.seniority_id = seniority.id;</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>"[\n    [\n        \"Perez\",\n        \"Juan\",\n        \"Trainee\"\n    ],\n    [\n        \"Gomez\",\n        \"Maria\",\n        \"Trainee\"\n    ],\n    [\n        \"Rodriguez\",\n        \"Carlos\",\n        \"Trainee\"\n    ],\n    [\n        \"Lopez\",\n        \"Ana\",\n        \"Trainee\"\n    ],\n    [\n        \"Martinez\",\n        \"Pedro\",\n        \"Trainee\"\n    ],\n    [\n        \"Sanchez\",\n        \"Martin\",\n        \"Semisenior\"\n    ],\n    [\n        \"Perez\",\n        \"Diego\",\n        \"Semisenior\"\n    ],\n    [\n        \"Diaz\",\n        \"Laura\",\n        \"Senior\"\n    ],\n    [\n        \"Garcia\",\n        \"Lucia\",\n        \"Senior\"\n    ],\n    [\n        \"Lopez\",\n        \"Camila\",\n        \"Senior\"\n    ]\n]"</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2024-05-27 18:10:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Que jerarquia tiene Juan Perez?</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>SELECT p.name, p.last_name, s.name as 'seniority'
+FROM person AS p
+INNER JOIN profile AS pr 
+ON p.user_id = pr.id
+INNER JOIN seniority as s 
+ON s.id = pr.seniority_id
+WHERE p.name = 'Juan' AND p.last_name = 'Perez';</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>"[\n    [\n        \"Juan\",\n        \"Perez\",\n        \"Trainee\"\n    ]\n]"</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2024-05-28 12:04:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Dame una lista de empleados con jerarquia</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SELECT person.last_name, person.name, seniority.name as seniority
+FROM person
+INNER JOIN profile ON person.user_id = profile.id
+INNER JOIN seniority ON profile.seniority_id = seniority.id;</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>"[\n    [\n        \"Perez\",\n        \"Juan\",\n        \"Trainee\"\n    ],\n    [\n        \"Gomez\",\n        \"Maria\",\n        \"Trainee\"\n    ],\n    [\n        \"Rodriguez\",\n        \"Carlos\",\n        \"Trainee\"\n    ],\n    [\n        \"Lopez\",\n        \"Ana\",\n        \"Trainee\"\n    ],\n    [\n        \"Martinez\",\n        \"Pedro\",\n        \"Trainee\"\n    ],\n    [\n        \"Sanchez\",\n        \"Martin\",\n        \"Semisenior\"\n    ],\n    [\n        \"Perez\",\n        \"Diego\",\n        \"Semisenior\"\n    ],\n    [\n        \"Diaz\",\n        \"Laura\",\n        \"Senior\"\n    ],\n    [\n        \"Garcia\",\n        \"Lucia\",\n        \"Senior\"\n    ],\n    [\n        \"Lopez\",\n        \"Camila\",\n        \"Senior\"\n    ]\n]"</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2024-05-28 12:32:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="409.6" customHeight="1">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Dame el porcentaje de trainees evaluados</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>SELECT COUNT(DISTINCT evaluation.evaluator_id) * 100.0 / (SELECT COUNT(DISTINCT person_profile.id) FROM person_profile INNER JOIN profile ON person_profile.profile_id = profile.id INNER JOIN seniority ON profile.seniority_id = seniority.id WHERE seniority.name = 'Trainee') AS percentage
+FROM evaluation_control
+INNER JOIN evaluation ON evaluation_control.evaluation_id = evaluation.id
+INNER JOIN person_profile ON evaluation.evaluator_id = person_profile.id
+INNER JOIN profile ON person_profile.profile_id = profile.id
+INNER JOIN seniority ON profile.seniority_id = seniority.id
+WHERE seniority.name = 'Trainee'</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>"[\n    [\n        \"1\",\n        \"100.00000\"\n    ]\n]"</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2024-05-28 12:33:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Dame el porcentaje de trainees que han sido evaluados</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>SELECT COUNT(*) * 100.0 / 
+   (SELECT COUNT(*) FROM person) AS percentage
+FROM person 
+INNER JOIN seniority ON person.id = seniority.id
+INNER JOIN evaluation ON person.id = evaluation.evaluator_id
+WHERE seniority.name = 'Trainee'</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>"[\n    [\n        \"10.00000\"\n    ]\n]"</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2024-05-28 12:33:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Dame el porcentaje de trainees que aun faltan evaluar</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SELECT ((SELECT COUNT(*)
+    FROM person_profile 
+    INNER JOIN profile ON person_profile.profile_id = profile.id 
+    INNER JOIN seniority ON profile.seniority_id = seniority.id 
+    WHERE seniority.name = 'Trainee') - 
+    (SELECT COUNT(*)
+    FROM evaluation_control 
+    INNER JOIN evaluation ON evaluation_control.evaluation_id = evaluation.id 
+    INNER JOIN person_profile ON evaluation.evaluator_id = person_profile.id 
+    INNER JOIN profile ON person_profile.profile_id = profile.id
+    INNER JOIN seniority ON profile.seniority_id = seniority.id
+    WHERE seniority.name = 'Trainee')) /
+    (SELECT COUNT(*) 
+    FROM person_profile
+    INNER JOIN profile ON person_profile.profile_id = profile.id
+    INNER JOIN seniority ON profile.seniority_id = seniority.id
+    WHERE seniority.name = 'Trainee') * 100 AS TraineePendingPercentage</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>"[\n    [\n        \"80.0000\"\n    ]\n]"</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2024-05-28 12:34:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Dame el porcentaje de trainees que han sido evaluados</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SELECT COUNT(*) * 100.0 / 
+   (SELECT COUNT(*) FROM person) AS percentage
+FROM person 
+INNER JOIN seniority ON person.id = seniority.id
+INNER JOIN evaluation ON person.id = evaluation.evaluator_id
+WHERE seniority.name = 'Trainee'</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>"[\n    [\n        \"10.00000\"\n    ]\n]"</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2024-05-28 12:34:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Dame el porcentaje de trainees evaluados</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>SELECT COUNT(DISTINCT evaluation.evaluator_id) * 100.0 / (SELECT COUNT(DISTINCT person_profile.id) FROM person_profile INNER JOIN profile ON person_profile.profile_id = profile.id INNER JOIN seniority ON profile.seniority_id = seniority.id WHERE seniority.name = 'Trainee') AS percentage
+FROM evaluation_control
+INNER JOIN evaluation ON evaluation_control.evaluation_id = evaluation.id
+INNER JOIN person_profile ON evaluation.evaluator_id = person_profile.id
+INNER JOIN profile ON person_profile.profile_id = profile.id
+INNER JOIN seniority ON profile.seniority_id = seniority.id
+WHERE seniority.name = 'Trainee'</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>"[\n    [\n        \"20.00000\"\n    ]\n]"</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2024-05-28 13:18:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="409.6" customHeight="1">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Dame el porcentaje de junior evaluados</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>SELECT COUNT(DISTINCT evaluation.evaluator_id) * 100.0 / (SELECT COUNT(DISTINCT person_profile.id) FROM person_profile INNER JOIN profile ON person_profile.profile_id = profile.id INNER JOIN seniority ON profile.seniority_id = seniority.id WHERE seniority.name = 'Trainee') AS percentage
+FROM evaluation_control
+INNER JOIN evaluation ON evaluation_control.evaluation_id = evaluation.id
+INNER JOIN person_profile ON evaluation.evaluator_id = person_profile.id
+INNER JOIN profile ON person_profile.profile_id = profile.id
+INNER JOIN seniority ON profile.seniority_id = seniority.id
+WHERE seniority.name = 'Junior'</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>"[]"</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2024-05-28 13:30:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Dame el porcentaje de junior evaluados</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>SELECT COUNT(DISTINCT evaluation.evaluator_id) * 100.0 / (SELECT COUNT(DISTINCT person_profile.id) FROM person_profile INNER JOIN profile ON person_profile.profile_id = profile.id INNER JOIN seniority ON profile.seniority_id = seniority.id WHERE seniority.name = 'Trainee') AS percentage
+FROM evaluation_control
+INNER JOIN evaluation ON evaluation_control.evaluation_id = evaluation.id
+INNER JOIN person_profile ON evaluation.evaluator_id = person_profile.id
+INNER JOIN profile ON person_profile.profile_id = profile.id
+INNER JOIN seniority ON profile.seniority_id = seniority.id
+WHERE seniority.name = 'Junior'</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>"[\n    [\n        \"0.00000\"\n    ]\n]"</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2024-05-28 13:35:46</t>
         </is>
       </c>
     </row>

--- a/registro/consultas_correctas.xlsx
+++ b/registro/consultas_correctas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2549,6 +2549,29 @@
         </is>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dame una lista de empleados.
+</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>SELECT name, last_name FROM person;</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>"[\n    [\n        \"John\",\n        \"Doe\"\n    ],\n    [\n        \"Jane\",\n        \"Smith\"\n    ],\n    [\n        \"Alice\",\n        \"Johnson\"\n    ],\n    [\n        \"Bob\",\n        \"Brown\"\n    ],\n    [\n        \"Charlie\",\n        \"Davis\"\n    ],\n    [\n        \"David\",\n        \"Evans\"\n    ],\n    [\n        \"Eve\",\n        \"Foster\"\n    ],\n    [\n        \"Frank\",\n        \"Garcia\"\n    ],\n    [\n        \"Grace\",\n        \"Harris\"\n    ],\n    [\n        \"Hank\",\n        \"Irwin\"\n    ],\n    [\n        \"Ivy\",\n        \"Jackson\"\n    ],\n    [\n        \"Jack\",\n        \"Kramer\"\n    ],\n    [\n        \"Karen\",\n        \"Lewis\"\n    ],\n    [\n        \"Liam\",\n        \"Martinez\"\n    ],\n    [\n        \"Mia\",\n        \"Nelson\"\n    ],\n    [\n        \"Noah\",\n        \"Owens\"\n    ],\n    [\n        \"Olivia\",\n        \"Perez\"\n    ],\n    [\n        \"Paul\",\n        \"Quinn\"\n    ],\n    [\n        \"Quincy\",\n        \"Reed\"\n    ],\n    [\n        \"Rachel\",\n        \"Smith\"\n    ]\n]"</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2024-07-11 09:55:45</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
